--- a/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（一）（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（一）（日）.xlsx
@@ -1020,9 +1020,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1081,7 +1081,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="65"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1095,16 +1103,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="2"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1113,21 +1120,6 @@
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1147,23 +1139,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1195,22 +1201,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="65"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1237,8 +1237,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1249,8 +1249,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -1261,8 +1261,146 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1273,152 +1411,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
   </fills>
@@ -1975,30 +1975,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,17 +1994,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,15 +2008,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,16 +2037,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="45">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2097,130 +2097,130 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2749,7 +2749,7 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="14.25"/>
@@ -7029,41 +7029,146 @@
       <c r="A35" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="70"/>
+      <c r="B35" s="31" t="str">
+        <f t="shared" ref="B35:AJ35" si="0">IFERROR(AVERAGE(B11:B34),"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="36" ht="15" spans="1:36">
       <c r="A36" s="32" t="s">

--- a/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（一）（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（一）（日）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -888,11 +888,31 @@
         <scheme val="minor"/>
         <sz val="14"/>
       </rPr>
-      <t xml:space="preserve">                          交班：                              接班：</t>
+      <t xml:space="preserve">                          交班：                             </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">              交班：                   接班：</t>
+    <r>
+      <rPr>
+        <b/>
+        <rFont val="Arial"/>
+        <sz val="14"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="14"/>
+      </rPr>
+      <t xml:space="preserve">                          交班：                              </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">              交班：                   </t>
   </si>
   <si>
     <t>version</t>
@@ -3081,6 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="B13" xSplit="1" ySplit="12"/>
       <selection activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7912,7 +7933,7 @@
       <c r="M39" s="66"/>
       <c r="N39" s="67"/>
       <c r="O39" s="65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
@@ -7926,7 +7947,7 @@
       <c r="Y39" s="66"/>
       <c r="Z39" s="67"/>
       <c r="AA39" s="68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB39" s="69"/>
       <c r="AC39" s="69"/>
@@ -8695,7 +8716,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="0">
         <v>12</v>
